--- a/作出excel/Ionosphere Data1.xlsx
+++ b/作出excel/Ionosphere Data1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423E2F8A-F2CF-4035-92D0-C57988AEA863}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54825D0-FA8D-4697-ABDC-DEE43B71F905}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,16 +86,333 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -103,18 +420,296 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - 着色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="41" xr:uid="{23F46E42-62C5-4AB0-A761-1E9A5150DAE8}"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{24845644-021C-44BD-9131-875F0B2DAD09}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,64 +904,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-1.8957345971563899E-2</c:v>
+                  <c:v>1.25118483412E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.8436018957345901E-2</c:v>
+                  <c:v>1.72511848341E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.5829383886255902E-2</c:v>
+                  <c:v>1.25118483412E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.6872037914691899E-2</c:v>
+                  <c:v>7.77251184834E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.5308056872037893E-2</c:v>
+                  <c:v>3.0331753554500001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.13744075829383801</c:v>
+                  <c:v>1.25118483412E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.123222748815165</c:v>
+                  <c:v>7.77251184834E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.127962085308056</c:v>
+                  <c:v>3.0331753554500001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.13744075829383801</c:v>
+                  <c:v>-1.11848341232E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.184834123222748</c:v>
+                  <c:v>-6.4454976303299997E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.175355450236966</c:v>
+                  <c:v>2.1990521326999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.175355450236966</c:v>
+                  <c:v>-2.0663507109000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.19431279620853001</c:v>
+                  <c:v>-2.54028436019E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.24170616113744001</c:v>
+                  <c:v>-2.54028436019E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.21327014218009399</c:v>
+                  <c:v>-3.0142180094799999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.246445497630331</c:v>
+                  <c:v>-5.38388625592E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.255924170616113</c:v>
+                  <c:v>-4.9099526066400001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.279620853080568</c:v>
+                  <c:v>-4.4360189573499999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.25118483412322201</c:v>
+                  <c:v>-3.9620853080600003E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.27014218009478602</c:v>
+                  <c:v>-4.4360189573499999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,64 +1077,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.8957345971563899E-2</c:v>
+                  <c:v>2.1990521326999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8957345971563899E-2</c:v>
+                  <c:v>2.1990521326999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4786729857819704E-3</c:v>
+                  <c:v>1.72511848341E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4786729857819704E-3</c:v>
+                  <c:v>1.25118483412E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8957345971563899E-2</c:v>
+                  <c:v>2.1990521326999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8436018957345901E-2</c:v>
+                  <c:v>3.14691943128E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8436018957345901E-2</c:v>
+                  <c:v>3.14691943128E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8436018957345901E-2</c:v>
+                  <c:v>3.14691943128E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8436018957345901E-2</c:v>
+                  <c:v>3.14691943128E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8436018957345901E-2</c:v>
+                  <c:v>3.14691943128E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8436018957345901E-2</c:v>
+                  <c:v>3.14691943128E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8436018957345901E-2</c:v>
+                  <c:v>3.14691943128E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8436018957345901E-2</c:v>
+                  <c:v>3.14691943128E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8436018957345901E-2</c:v>
+                  <c:v>3.14691943128E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3696682464454999E-2</c:v>
+                  <c:v>2.6729857819900001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8436018957345901E-2</c:v>
+                  <c:v>2.1990521326999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8436018957345901E-2</c:v>
+                  <c:v>1.25118483412E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8436018957345901E-2</c:v>
+                  <c:v>1.72511848341E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-2.0663507109000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.4218009478673001E-2</c:v>
+                  <c:v>-5.8578199052100002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,64 +1528,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.31101181998724</c:v>
+                  <c:v>2.7410242380899999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8342964328434199</c:v>
+                  <c:v>8.3288076598100006E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1665718642940499</c:v>
+                  <c:v>1.5231392220000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6160096351898199</c:v>
+                  <c:v>2.33091935709E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0368114967636002</c:v>
+                  <c:v>3.3385433498299998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2390201280344999</c:v>
+                  <c:v>4.4039664171799997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4529517984692402</c:v>
+                  <c:v>5.1894107499699998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8899258308711002</c:v>
+                  <c:v>6.5122303155199998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0485040291917498</c:v>
+                  <c:v>7.8806933768999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3460914496653098</c:v>
+                  <c:v>9.4329363042100003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3521927462689902</c:v>
+                  <c:v>0.10493813368799999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5949054824388904</c:v>
+                  <c:v>0.120105948578</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6847598049584303</c:v>
+                  <c:v>0.134933015839</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.98797821836901</c:v>
+                  <c:v>0.148714010935</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.31492541543511</c:v>
+                  <c:v>0.16802805792200001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3383104566089896</c:v>
+                  <c:v>0.18094307379300001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4146741882390304</c:v>
+                  <c:v>0.201276150771</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4339670237104798</c:v>
+                  <c:v>0.224013668286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.6695828683185301</c:v>
+                  <c:v>0.24040421317399999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.8828043117153603</c:v>
+                  <c:v>0.25569253069499998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1106,64 +1701,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.35968495836227798</c:v>
+                  <c:v>0.35968495836199998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38652681729384902</c:v>
+                  <c:v>0.38652681729400001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43090867147741102</c:v>
+                  <c:v>0.43090867147700002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.448215276356831</c:v>
+                  <c:v>0.44821527635699998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45496050289325302</c:v>
+                  <c:v>0.454960502893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45750645933321799</c:v>
+                  <c:v>0.45750645933299999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.458425670895102</c:v>
+                  <c:v>0.45842567089500003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45870914114550698</c:v>
+                  <c:v>0.45870914114599998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45875275552925898</c:v>
+                  <c:v>0.45875275552900002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45875281901868198</c:v>
+                  <c:v>0.458752819019</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45875281901868198</c:v>
+                  <c:v>0.458752819019</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45875281901868198</c:v>
+                  <c:v>0.458752819019</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.45875281901868198</c:v>
+                  <c:v>0.458752819019</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45876432253878602</c:v>
+                  <c:v>0.45876432253900001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.45888505813921698</c:v>
+                  <c:v>0.45888505813899999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.45935088082002701</c:v>
+                  <c:v>0.45935088081999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.46066909716528198</c:v>
+                  <c:v>0.46066909716499999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.46357900787357598</c:v>
+                  <c:v>0.46357900787400003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.46940904891810997</c:v>
+                  <c:v>0.469409048918</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.47920391514242899</c:v>
+                  <c:v>0.479203915142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1557,64 +2152,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>52.4268190688597</c:v>
+                  <c:v>5.8575411207099997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.972121550041798</c:v>
+                  <c:v>13.3897407304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.486478951770202</c:v>
+                  <c:v>20.6046835796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.736269863395599</c:v>
+                  <c:v>24.7145246724</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.237245609144097</c:v>
+                  <c:v>31.474212433800002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.087538332868604</c:v>
+                  <c:v>36.4937273488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.118483412322206</c:v>
+                  <c:v>37.842765542199999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.863395595204906</c:v>
+                  <c:v>41.740451630899997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.453861165319196</c:v>
+                  <c:v>44.928073599100003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>65.080847504878705</c:v>
+                  <c:v>47.683022024000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.362698633955901</c:v>
+                  <c:v>48.849177585699998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67.044047950933901</c:v>
+                  <c:v>49.730415388899999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66.418176749372705</c:v>
+                  <c:v>51.197379425699999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66.494006133258907</c:v>
+                  <c:v>53.049623640900002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66.667131307499304</c:v>
+                  <c:v>54.469751881800001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65.4204070253693</c:v>
+                  <c:v>55.609980485100003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.708112628937798</c:v>
+                  <c:v>56.262336214100003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66.951770281572294</c:v>
+                  <c:v>57.046557011399997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>66.2358516866462</c:v>
+                  <c:v>57.463339838300001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67.564817396152705</c:v>
+                  <c:v>58.5118483412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,64 +2325,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>27.2943964315584</c:v>
+                  <c:v>27.294396431599999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.501254530248101</c:v>
+                  <c:v>27.501254530200001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.776693615834901</c:v>
+                  <c:v>27.776693615799999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.447170337329201</c:v>
+                  <c:v>27.447170337300001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.584611095623</c:v>
+                  <c:v>26.5846110956</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.384443824923299</c:v>
+                  <c:v>27.3844438249</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.4984666852523</c:v>
+                  <c:v>27.498466685299999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.355450236966799</c:v>
+                  <c:v>27.355450236999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.094786729857798</c:v>
+                  <c:v>27.094786729900001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.346529132980201</c:v>
+                  <c:v>27.346529133000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.346529132980201</c:v>
+                  <c:v>27.346529133000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.346529132980201</c:v>
+                  <c:v>27.346529133000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.346529132980201</c:v>
+                  <c:v>27.346529133000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.502927237245601</c:v>
+                  <c:v>28.502927237200002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.758572623362099</c:v>
+                  <c:v>30.758572623399999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.020630052968997</c:v>
+                  <c:v>33.020630052999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.471145804293201</c:v>
+                  <c:v>34.471145804300001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.429049344856402</c:v>
+                  <c:v>36.429049344900001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.073041538890401</c:v>
+                  <c:v>39.0730415389</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.271536102592698</c:v>
+                  <c:v>42.271536102600002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,64 +2776,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.241984945637022</c:v>
+                  <c:v>0.91552829662670698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16852522999721201</c:v>
+                  <c:v>0.80415388904376905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.138555896292166</c:v>
+                  <c:v>0.70616113744075804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.115695567326456</c:v>
+                  <c:v>0.63827711179258395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2277669361583395E-2</c:v>
+                  <c:v>0.54669640367995498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2726512405910206E-2</c:v>
+                  <c:v>0.477976024533035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7641483133537706E-2</c:v>
+                  <c:v>0.44786729857819901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3702258154446606E-2</c:v>
+                  <c:v>0.39866183440200698</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.32840814050738E-2</c:v>
+                  <c:v>0.35823808196264201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7568999163646502E-2</c:v>
+                  <c:v>0.327850571508224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8926679676609901E-2</c:v>
+                  <c:v>0.29871759130192299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7950933928073598E-2</c:v>
+                  <c:v>0.28366322832450502</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4187343183718898E-2</c:v>
+                  <c:v>0.27153610259269501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.7950933928073598E-2</c:v>
+                  <c:v>0.242821299135768</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3350989684973501E-2</c:v>
+                  <c:v>0.22470030666294899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5581265681628097E-2</c:v>
+                  <c:v>0.21354892667967601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5441873431837101E-2</c:v>
+                  <c:v>0.19389461945915801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.7672149428491697E-2</c:v>
+                  <c:v>0.18957345971563899</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1678282687482499E-2</c:v>
+                  <c:v>0.18790075271814799</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.0702536938946099E-2</c:v>
+                  <c:v>0.17591301923613001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7695,8 +8290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7764,1014 +8359,1014 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>0.03</v>
       </c>
-      <c r="B3" s="1">
-        <v>-1.8957345971563899E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.31101181998724</v>
-      </c>
-      <c r="D3" s="1">
-        <v>52.4268190688597</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.241984945637022</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="B3" s="2">
+        <v>1.25118483412E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.7410242380899999E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.8575411207099997</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.91552829662670698</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>1.8957345971563899E-2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.35968495836227798</v>
-      </c>
-      <c r="K3" s="1">
-        <v>27.2943964315584</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="I3" s="2">
+        <v>2.1990521326999999E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.35968495836199998</v>
+      </c>
+      <c r="K3" s="2">
+        <v>27.294396431599999</v>
+      </c>
+      <c r="L3" s="2">
         <v>0.62601059381098401</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>0.06</v>
       </c>
-      <c r="B4" s="1">
-        <v>-2.8436018957345901E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.8342964328434199</v>
-      </c>
-      <c r="D4" s="1">
-        <v>57.972121550041798</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.16852522999721201</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="B4" s="2">
+        <v>1.72511848341E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.3288076598100006E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>13.3897407304</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.80415388904376905</v>
+      </c>
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>1.8957345971563899E-2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.38652681729384902</v>
-      </c>
-      <c r="K4" s="1">
-        <v>27.501254530248101</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="I4" s="2">
+        <v>2.1990521326999999E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.38652681729400001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>27.501254530200001</v>
+      </c>
+      <c r="L4" s="2">
         <v>0.62656816281014704</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>0</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>0.09</v>
       </c>
-      <c r="B5" s="1">
-        <v>-7.5829383886255902E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.1665718642940499</v>
-      </c>
-      <c r="D5" s="1">
-        <v>59.486478951770202</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.138555896292166</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="B5" s="2">
+        <v>1.25118483412E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.5231392220000001E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20.6046835796</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.70616113744075804</v>
+      </c>
+      <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>9.4786729857819704E-3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.43090867147741102</v>
-      </c>
-      <c r="K5" s="1">
-        <v>27.776693615834901</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="I5" s="2">
+        <v>1.72511848341E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.43090867147700002</v>
+      </c>
+      <c r="K5" s="2">
+        <v>27.776693615799999</v>
+      </c>
+      <c r="L5" s="2">
         <v>0.62280457206579298</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>0.12</v>
       </c>
-      <c r="B6" s="1">
-        <v>-5.6872037914691899E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.6160096351898199</v>
-      </c>
-      <c r="D6" s="1">
-        <v>61.736269863395599</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.115695567326456</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="B6" s="2">
+        <v>7.77251184834E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.33091935709E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>24.7145246724</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.63827711179258395</v>
+      </c>
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>9.4786729857819704E-3</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.448215276356831</v>
-      </c>
-      <c r="K6" s="1">
-        <v>27.447170337329201</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="I6" s="2">
+        <v>1.25118483412E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.44821527635699998</v>
+      </c>
+      <c r="K6" s="2">
+        <v>27.447170337300001</v>
+      </c>
+      <c r="L6" s="2">
         <v>0.62461667131307497</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>0.15</v>
       </c>
-      <c r="B7" s="1">
-        <v>-8.5308056872037893E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.0368114967636002</v>
-      </c>
-      <c r="D7" s="1">
-        <v>63.237245609144097</v>
-      </c>
-      <c r="E7" s="1">
-        <v>9.2277669361583395E-2</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="B7" s="2">
+        <v>3.0331753554500001E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.3385433498299998E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>31.474212433800002</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.54669640367995498</v>
+      </c>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>1.8957345971563899E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.45496050289325302</v>
-      </c>
-      <c r="K7" s="1">
-        <v>26.584611095623</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="I7" s="2">
+        <v>2.1990521326999999E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.454960502893</v>
+      </c>
+      <c r="K7" s="2">
+        <v>26.5846110956</v>
+      </c>
+      <c r="L7" s="2">
         <v>0.62489545581265604</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>0.18</v>
       </c>
-      <c r="B8" s="1">
-        <v>-0.13744075829383801</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.2390201280344999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>64.087538332868604</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6.2726512405910206E-2</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="B8" s="2">
+        <v>1.25118483412E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.4039664171799997E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>36.4937273488</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.477976024533035</v>
+      </c>
+      <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>2.8436018957345901E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.45750645933321799</v>
-      </c>
-      <c r="K8" s="1">
-        <v>27.384443824923299</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="I8" s="2">
+        <v>3.14691943128E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.45750645933299999</v>
+      </c>
+      <c r="K8" s="2">
+        <v>27.3844438249</v>
+      </c>
+      <c r="L8" s="2">
         <v>0.62601059381098401</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>0.21</v>
       </c>
-      <c r="B9" s="1">
-        <v>-0.123222748815165</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.4529517984692402</v>
-      </c>
-      <c r="D9" s="1">
-        <v>64.118483412322206</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7.7641483133537706E-2</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="B9" s="2">
+        <v>7.77251184834E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.1894107499699998E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>37.842765542199999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.44786729857819901</v>
+      </c>
+      <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>2.8436018957345901E-2</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.458425670895102</v>
-      </c>
-      <c r="K9" s="1">
-        <v>27.4984666852523</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="I9" s="2">
+        <v>3.14691943128E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.45842567089500003</v>
+      </c>
+      <c r="K9" s="2">
+        <v>27.498466685299999</v>
+      </c>
+      <c r="L9" s="2">
         <v>0.62489545581265604</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>0.24</v>
       </c>
-      <c r="B10" s="1">
-        <v>-0.127962085308056</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.8899258308711002</v>
-      </c>
-      <c r="D10" s="1">
-        <v>64.863395595204906</v>
-      </c>
-      <c r="E10" s="1">
-        <v>6.3702258154446606E-2</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="B10" s="2">
+        <v>3.0331753554500001E-3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.5122303155199998E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>41.740451630899997</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.39866183440200698</v>
+      </c>
+      <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>2.8436018957345901E-2</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.45870914114550698</v>
-      </c>
-      <c r="K10" s="1">
-        <v>27.355450236966799</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="I10" s="2">
+        <v>3.14691943128E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.45870914114599998</v>
+      </c>
+      <c r="K10" s="2">
+        <v>27.355450236999999</v>
+      </c>
+      <c r="L10" s="2">
         <v>0.62851965430722001</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>0.26</v>
       </c>
-      <c r="B11" s="1">
-        <v>-0.13744075829383801</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4.0485040291917498</v>
-      </c>
-      <c r="D11" s="1">
-        <v>65.453861165319196</v>
-      </c>
-      <c r="E11" s="1">
-        <v>6.32840814050738E-2</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="B11" s="2">
+        <v>-1.11848341232E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7.8806933768999998E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44.928073599100003</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.35823808196264201</v>
+      </c>
+      <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>2.8436018957345901E-2</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.45875275552925898</v>
-      </c>
-      <c r="K11" s="1">
-        <v>27.094786729857798</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="I11" s="2">
+        <v>3.14691943128E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.45875275552900002</v>
+      </c>
+      <c r="K11" s="2">
+        <v>27.094786729900001</v>
+      </c>
+      <c r="L11" s="2">
         <v>0.62768330080847501</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="B12" s="1">
-        <v>-0.184834123222748</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4.3460914496653098</v>
-      </c>
-      <c r="D12" s="1">
-        <v>65.080847504878705</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5.7568999163646502E-2</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="B12" s="2">
+        <v>-6.4454976303299997E-3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9.4329363042100003E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>47.683022024000003</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.327850571508224</v>
+      </c>
+      <c r="F12" s="2">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
-        <v>2.8436018957345901E-2</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.45875281901868198</v>
-      </c>
-      <c r="K12" s="1">
-        <v>27.346529132980201</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="I12" s="2">
+        <v>3.14691943128E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.458752819019</v>
+      </c>
+      <c r="K12" s="2">
+        <v>27.346529133000001</v>
+      </c>
+      <c r="L12" s="2">
         <v>0.62670755505993803</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="2">
         <v>0</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>0.32</v>
       </c>
-      <c r="B13" s="1">
-        <v>-0.175355450236966</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4.3521927462689902</v>
-      </c>
-      <c r="D13" s="1">
-        <v>66.362698633955901</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4.8926679676609901E-2</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="B13" s="2">
+        <v>2.1990521326999999E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.10493813368799999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>48.849177585699998</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.29871759130192299</v>
+      </c>
+      <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="1">
-        <v>2.8436018957345901E-2</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.45875281901868198</v>
-      </c>
-      <c r="K13" s="1">
-        <v>27.346529132980201</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="I13" s="2">
+        <v>3.14691943128E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.458752819019</v>
+      </c>
+      <c r="K13" s="2">
+        <v>27.346529133000001</v>
+      </c>
+      <c r="L13" s="2">
         <v>0.62670755505993803</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>0.35</v>
       </c>
-      <c r="B14" s="1">
-        <v>-0.175355450236966</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4.5949054824388904</v>
-      </c>
-      <c r="D14" s="1">
-        <v>67.044047950933901</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4.7950933928073598E-2</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="B14" s="2">
+        <v>-2.0663507109000001E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.120105948578</v>
+      </c>
+      <c r="D14" s="2">
+        <v>49.730415388899999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.28366322832450502</v>
+      </c>
+      <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="I14" s="1">
-        <v>2.8436018957345901E-2</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.45875281901868198</v>
-      </c>
-      <c r="K14" s="1">
-        <v>27.346529132980201</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="I14" s="2">
+        <v>3.14691943128E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.458752819019</v>
+      </c>
+      <c r="K14" s="2">
+        <v>27.346529133000001</v>
+      </c>
+      <c r="L14" s="2">
         <v>0.62670755505993803</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="2">
         <v>0</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>0.38</v>
       </c>
-      <c r="B15" s="1">
-        <v>-0.19431279620853001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4.6847598049584303</v>
-      </c>
-      <c r="D15" s="1">
-        <v>66.418176749372705</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4.4187343183718898E-2</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="B15" s="2">
+        <v>-2.54028436019E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.134933015839</v>
+      </c>
+      <c r="D15" s="2">
+        <v>51.197379425699999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.27153610259269501</v>
+      </c>
+      <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="1">
-        <v>2.8436018957345901E-2</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.45875281901868198</v>
-      </c>
-      <c r="K15" s="1">
-        <v>27.346529132980201</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="I15" s="2">
+        <v>3.14691943128E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.458752819019</v>
+      </c>
+      <c r="K15" s="2">
+        <v>27.346529133000001</v>
+      </c>
+      <c r="L15" s="2">
         <v>0.62670755505993803</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>0.41</v>
       </c>
-      <c r="B16" s="1">
-        <v>-0.24170616113744001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4.98797821836901</v>
-      </c>
-      <c r="D16" s="1">
-        <v>66.494006133258907</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4.7950933928073598E-2</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="B16" s="2">
+        <v>-2.54028436019E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.148714010935</v>
+      </c>
+      <c r="D16" s="2">
+        <v>53.049623640900002</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.242821299135768</v>
+      </c>
+      <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="1">
-        <v>2.8436018957345901E-2</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.45876432253878602</v>
-      </c>
-      <c r="K16" s="1">
-        <v>28.502927237245601</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="I16" s="2">
+        <v>3.14691943128E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.45876432253900001</v>
+      </c>
+      <c r="K16" s="2">
+        <v>28.502927237200002</v>
+      </c>
+      <c r="L16" s="2">
         <v>0.60022302759966495</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>0.44</v>
       </c>
-      <c r="B17" s="1">
-        <v>-0.21327014218009399</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5.31492541543511</v>
-      </c>
-      <c r="D17" s="1">
-        <v>66.667131307499304</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4.3350989684973501E-2</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="B17" s="2">
+        <v>-3.0142180094799999E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.16802805792200001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>54.469751881800001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.22470030666294899</v>
+      </c>
+      <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
-        <v>2.3696682464454999E-2</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.45888505813921698</v>
-      </c>
-      <c r="K17" s="1">
-        <v>30.758572623362099</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="I17" s="2">
+        <v>2.6729857819900001E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.45888505813899999</v>
+      </c>
+      <c r="K17" s="2">
+        <v>30.758572623399999</v>
+      </c>
+      <c r="L17" s="2">
         <v>0.56969612489545496</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>0.47</v>
       </c>
-      <c r="B18" s="1">
-        <v>-0.246445497630331</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5.3383104566089896</v>
-      </c>
-      <c r="D18" s="1">
-        <v>65.4204070253693</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4.5581265681628097E-2</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="B18" s="2">
+        <v>-5.38388625592E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.18094307379300001</v>
+      </c>
+      <c r="D18" s="2">
+        <v>55.609980485100003</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.21354892667967601</v>
+      </c>
+      <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>1</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="I18" s="1">
-        <v>2.8436018957345901E-2</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.45935088082002701</v>
-      </c>
-      <c r="K18" s="1">
-        <v>33.020630052968997</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="I18" s="2">
+        <v>2.1990521326999999E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.45935088081999997</v>
+      </c>
+      <c r="K18" s="2">
+        <v>33.020630052999998</v>
+      </c>
+      <c r="L18" s="2">
         <v>0.538890437691664</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="2">
         <v>0</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>0.5</v>
       </c>
-      <c r="B19" s="1">
-        <v>-0.255924170616113</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5.4146741882390304</v>
-      </c>
-      <c r="D19" s="1">
-        <v>66.708112628937798</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4.5441873431837101E-2</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="B19" s="2">
+        <v>-4.9099526066400001E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.201276150771</v>
+      </c>
+      <c r="D19" s="2">
+        <v>56.262336214100003</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.19389461945915801</v>
+      </c>
+      <c r="F19" s="2">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <v>1</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="I19" s="1">
-        <v>2.8436018957345901E-2</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.46066909716528198</v>
-      </c>
-      <c r="K19" s="1">
-        <v>34.471145804293201</v>
-      </c>
-      <c r="L19" s="1">
+      <c r="I19" s="2">
+        <v>1.25118483412E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.46066909716499999</v>
+      </c>
+      <c r="K19" s="2">
+        <v>34.471145804300001</v>
+      </c>
+      <c r="L19" s="2">
         <v>0.50752718148870901</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>0.53</v>
       </c>
-      <c r="B20" s="1">
-        <v>-0.279620853080568</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5.4339670237104798</v>
-      </c>
-      <c r="D20" s="1">
-        <v>66.951770281572294</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4.7672149428491697E-2</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="B20" s="2">
+        <v>-4.4360189573499999E-2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.224013668286</v>
+      </c>
+      <c r="D20" s="2">
+        <v>57.046557011399997</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.18957345971563899</v>
+      </c>
+      <c r="F20" s="2">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="I20" s="1">
-        <v>2.8436018957345901E-2</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.46357900787357598</v>
-      </c>
-      <c r="K20" s="1">
-        <v>36.429049344856402</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="I20" s="2">
+        <v>1.72511848341E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.46357900787400003</v>
+      </c>
+      <c r="K20" s="2">
+        <v>36.429049344900001</v>
+      </c>
+      <c r="L20" s="2">
         <v>0.474630610538054</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="B21" s="1">
-        <v>-0.25118483412322201</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5.6695828683185301</v>
-      </c>
-      <c r="D21" s="1">
-        <v>66.2358516866462</v>
-      </c>
-      <c r="E21" s="1">
-        <v>4.1678282687482499E-2</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="B21" s="2">
+        <v>-3.9620853080600003E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.24040421317399999</v>
+      </c>
+      <c r="D21" s="2">
+        <v>57.463339838300001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.18790075271814799</v>
+      </c>
+      <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
+        <v>-2.0663507109000001E-2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.469409048918</v>
+      </c>
+      <c r="K21" s="2">
+        <v>39.0730415389</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.44368553108447101</v>
+      </c>
+      <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="1">
-        <v>0.46940904891810997</v>
-      </c>
-      <c r="K21" s="1">
-        <v>39.073041538890401</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.44368553108447101</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="N21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>0.59</v>
       </c>
-      <c r="B22" s="1">
-        <v>-0.27014218009478602</v>
-      </c>
-      <c r="C22" s="1">
-        <v>5.8828043117153603</v>
-      </c>
-      <c r="D22" s="1">
-        <v>67.564817396152705</v>
-      </c>
-      <c r="E22" s="1">
-        <v>4.0702536938946099E-2</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="B22" s="2">
+        <v>-4.4360189573499999E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.25569253069499998</v>
+      </c>
+      <c r="D22" s="2">
+        <v>58.5118483412</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.17591301923613001</v>
+      </c>
+      <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>0</v>
       </c>
-      <c r="I22" s="1">
-        <v>-1.4218009478673001E-2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.47920391514242899</v>
-      </c>
-      <c r="K22" s="1">
-        <v>42.271536102592698</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="I22" s="2">
+        <v>-5.8578199052100002E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.479203915142</v>
+      </c>
+      <c r="K22" s="2">
+        <v>42.271536102600002</v>
+      </c>
+      <c r="L22" s="2">
         <v>0.39434067465848899</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="2">
         <v>0</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>0.62</v>
       </c>
-      <c r="B23" s="1">
-        <v>-0.27488151658767701</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6.0952088194701304</v>
-      </c>
-      <c r="D23" s="1">
-        <v>66.380540841929104</v>
-      </c>
-      <c r="E23" s="1">
-        <v>4.1120713688318898E-2</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="B23" s="2">
+        <v>-1.70616113744E-3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.27877298804</v>
+      </c>
+      <c r="D23" s="2">
+        <v>58.389183161399998</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.16977976024533001</v>
+      </c>
+      <c r="F23" s="2">
         <v>0</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>1</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>0</v>
       </c>
-      <c r="I23" s="1">
-        <v>-2.8436018957345901E-2</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.49433301199929303</v>
-      </c>
-      <c r="K23" s="1">
-        <v>47.229718427655399</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="I23" s="2">
+        <v>-8.7014218009500002E-2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.49433301199899998</v>
+      </c>
+      <c r="K23" s="2">
+        <v>47.2297184277</v>
+      </c>
+      <c r="L23" s="2">
         <v>0.33022023975466902</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="2">
         <v>0</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>0.65</v>
       </c>
-      <c r="B24" s="1">
-        <v>-0.27014218009478602</v>
-      </c>
-      <c r="C24" s="1">
-        <v>6.3230420841449799</v>
-      </c>
-      <c r="D24" s="1">
-        <v>67.670197936994697</v>
-      </c>
-      <c r="E24" s="1">
-        <v>3.9169222191246099E-2</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="B24" s="2">
+        <v>-7.2796208530800002E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.30482829285899998</v>
+      </c>
+      <c r="D24" s="2">
+        <v>59.751045441899997</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.15402843601895699</v>
+      </c>
+      <c r="F24" s="2">
         <v>0</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="I24" s="1">
-        <v>-6.6350710900473897E-2</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.51484750036385396</v>
-      </c>
-      <c r="K24" s="1">
-        <v>49.735154725397202</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="I24" s="2">
+        <v>-0.11545023696700001</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.51484750036399995</v>
+      </c>
+      <c r="K24" s="2">
+        <v>49.735154725400001</v>
+      </c>
+      <c r="L24" s="2">
         <v>0.28631168107053201</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="2">
         <v>0</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>0.68</v>
       </c>
-      <c r="B25" s="1">
-        <v>-0.28909952606634998</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6.3909622527554397</v>
-      </c>
-      <c r="D25" s="1">
-        <v>66.579035405631402</v>
-      </c>
-      <c r="E25" s="1">
-        <v>4.3769166434346203E-2</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="B25" s="2">
+        <v>-3.9620853080600003E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.32394892909200002</v>
+      </c>
+      <c r="D25" s="2">
+        <v>59.9643155841</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.145943685531084</v>
+      </c>
+      <c r="F25" s="2">
         <v>0</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>1</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>0</v>
       </c>
-      <c r="I25" s="1">
-        <v>-7.5829383886255902E-2</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.540487960843124</v>
-      </c>
-      <c r="K25" s="1">
-        <v>52.4011708948982</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="I25" s="2">
+        <v>-0.124928909953</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.54048796084299999</v>
+      </c>
+      <c r="K25" s="2">
+        <v>52.401170894899998</v>
+      </c>
+      <c r="L25" s="2">
         <v>0.25285754112071301</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="2">
         <v>0</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="2">
         <v>1</v>
       </c>
     </row>
